--- a/RandomForest.xlsx
+++ b/RandomForest.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.02643619725470259</v>
       </c>
     </row>
     <row r="4">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.1625921192884286</v>
       </c>
     </row>
     <row r="5">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9735638027452974</v>
       </c>
     </row>
     <row r="7">
@@ -666,16 +666,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.9850762891190555</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9859547430609743</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9855153203342619</v>
       </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>8971</v>
       </c>
     </row>
     <row r="11">
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.852803738317757</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.8449074074074074</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.8488372093023256</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12">
@@ -704,16 +704,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.9735638027452974</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.9735638027452974</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9735638027452974</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.9735638027452974</v>
       </c>
     </row>
     <row r="13">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.9189400137184063</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9154310752341909</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9171762648182937</v>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>9835</v>
       </c>
     </row>
     <row r="14">
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.9734562094147015</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9735638027452974</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9735082142913954</v>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>9835</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -868,101 +868,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>scaled_carrier_score</t>
+          <t>scaled_origin_score</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02099604626478559</v>
+        <v>0.2474621728675026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>scaled_carrier_score</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03364001175061553</v>
+        <v>0.353033011048544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>temp</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04069476308080667</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>dew</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.02058758989224173</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>humidity</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.01685604717075936</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>precip</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.05304998782784613</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>windgust</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.03426897131299331</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>windspeed</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.06275696575082582</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>visibility</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.0335162810863744</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>refund</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.6836333358627514</v>
+        <v>0.3995048160839534</v>
       </c>
     </row>
   </sheetData>

--- a/RandomForest.xlsx
+++ b/RandomForest.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>260</v>
+        <v>51200</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02643619725470259</v>
+        <v>0.05720855759572098</v>
       </c>
     </row>
     <row r="4">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1625921192884286</v>
+        <v>0.2391831047455505</v>
       </c>
     </row>
     <row r="5">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9735638027452974</v>
+        <v>0.942791442404279</v>
       </c>
     </row>
     <row r="7">
@@ -666,16 +666,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9850762891190555</v>
+        <v>0.944853119730376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9859547430609743</v>
+        <v>0.9971702015307612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9855153203342619</v>
+        <v>0.9703069633650563</v>
       </c>
       <c r="E10" t="n">
-        <v>8971</v>
+        <v>838929</v>
       </c>
     </row>
     <row r="11">
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.852803738317757</v>
+        <v>0.7524504692387904</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8449074074074074</v>
+        <v>0.128760572427822</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8488372093023256</v>
+        <v>0.219892735251097</v>
       </c>
       <c r="E11" t="n">
-        <v>864</v>
+        <v>56042</v>
       </c>
     </row>
     <row r="12">
@@ -704,16 +704,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9735638027452974</v>
+        <v>0.942791442404279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9735638027452974</v>
+        <v>0.942791442404279</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9735638027452974</v>
+        <v>0.942791442404279</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9735638027452974</v>
+        <v>0.942791442404279</v>
       </c>
     </row>
     <row r="13">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9189400137184063</v>
+        <v>0.8486517944845833</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9154310752341909</v>
+        <v>0.5629653869792915</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9171762648182937</v>
+        <v>0.5950998493080767</v>
       </c>
       <c r="E13" t="n">
-        <v>9835</v>
+        <v>894971</v>
       </c>
     </row>
     <row r="14">
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9734562094147015</v>
+        <v>0.9328050988013745</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9735638027452974</v>
+        <v>0.942791442404279</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9735082142913954</v>
+        <v>0.9233169333283708</v>
       </c>
       <c r="E14" t="n">
-        <v>9835</v>
+        <v>894971</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2474621728675026</v>
+        <v>0.3802894443534766</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.353033011048544</v>
+        <v>0.3705660290103981</v>
       </c>
     </row>
     <row r="11">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3995048160839534</v>
+        <v>0.2491445266361254</v>
       </c>
     </row>
   </sheetData>

--- a/RandomForest.xlsx
+++ b/RandomForest.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05720855759572098</v>
+        <v>0.06175972927241963</v>
       </c>
     </row>
     <row r="4">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2391831047455505</v>
+        <v>0.248515048382225</v>
       </c>
     </row>
     <row r="5">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.942791442404279</v>
+        <v>0.9382402707275804</v>
       </c>
     </row>
     <row r="7">
@@ -666,16 +666,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.944853119730376</v>
+        <v>0.9463776383342841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9971702015307612</v>
+        <v>0.990743505524037</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9703069633650563</v>
+        <v>0.9680525164113786</v>
       </c>
       <c r="E10" t="n">
-        <v>838929</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="11">
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7524504692387904</v>
+        <v>0.225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.128760572427822</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="D11" t="n">
-        <v>0.219892735251097</v>
+        <v>0.07594936708860758</v>
       </c>
       <c r="E11" t="n">
-        <v>56042</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
@@ -704,16 +704,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.942791442404279</v>
+        <v>0.9382402707275804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.942791442404279</v>
+        <v>0.9382402707275804</v>
       </c>
       <c r="D12" t="n">
-        <v>0.942791442404279</v>
+        <v>0.9382402707275804</v>
       </c>
       <c r="E12" t="n">
-        <v>0.942791442404279</v>
+        <v>0.9382402707275804</v>
       </c>
     </row>
     <row r="13">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8486517944845833</v>
+        <v>0.5856888191671421</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5629653869792915</v>
+        <v>0.5182143923559271</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5950998493080767</v>
+        <v>0.5220009417499931</v>
       </c>
       <c r="E13" t="n">
-        <v>894971</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="14">
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9328050988013745</v>
+        <v>0.9063011028712682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.942791442404279</v>
+        <v>0.9382402707275804</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9233169333283708</v>
+        <v>0.9184912303378913</v>
       </c>
       <c r="E14" t="n">
-        <v>894971</v>
+        <v>3546</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3802894443534766</v>
+        <v>0.2349681062958979</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3705660290103981</v>
+        <v>0.145134482586461</v>
       </c>
     </row>
     <row r="11">
@@ -892,7 +892,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2491445266361254</v>
+        <v>0.1074067272593633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>windspeed</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1433368196878005</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>visibility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2047709026008243</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>precip</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.164382961569653</v>
       </c>
     </row>
   </sheetData>

--- a/RandomForest.xlsx
+++ b/RandomForest.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06175972927241963</v>
+        <v>0.05458870664830349</v>
       </c>
     </row>
     <row r="4">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.248515048382225</v>
+        <v>0.2336422621194708</v>
       </c>
     </row>
     <row r="5">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9382402707275804</v>
+        <v>0.9454112933516965</v>
       </c>
     </row>
     <row r="7">
@@ -666,16 +666,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9463776383342841</v>
+        <v>0.9495256166982923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.990743505524037</v>
+        <v>0.995094789871404</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9680525164113786</v>
+        <v>0.9717762817193165</v>
       </c>
       <c r="E10" t="n">
-        <v>3349</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="11">
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.225</v>
+        <v>0.5487804878048781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04568527918781726</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07594936708860758</v>
+        <v>0.1711026615969582</v>
       </c>
       <c r="E11" t="n">
-        <v>197</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12">
@@ -704,16 +704,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9382402707275804</v>
+        <v>0.9454112933516965</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9382402707275804</v>
+        <v>0.9454112933516965</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9382402707275804</v>
+        <v>0.9454112933516965</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9382402707275804</v>
+        <v>0.9454112933516965</v>
       </c>
     </row>
     <row r="13">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5856888191671421</v>
+        <v>0.7491530522515852</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5182143923559271</v>
+        <v>0.5482230706113776</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5220009417499931</v>
+        <v>0.5714394716581374</v>
       </c>
       <c r="E13" t="n">
-        <v>3546</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="14">
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9063011028712682</v>
+        <v>0.9272480610167253</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9382402707275804</v>
+        <v>0.9454112933516965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9184912303378913</v>
+        <v>0.9272665675169468</v>
       </c>
       <c r="E14" t="n">
-        <v>3546</v>
+        <v>7987</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,57 +872,127 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2349681062958979</v>
+        <v>0.1439886734489047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>scaled_carrier_score</t>
+          <t>scaled_time_score</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.145134482586461</v>
+        <v>0.04752525657878551</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>scaled_weekday_score</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1074067272593633</v>
+        <v>0.01815684079150705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>windspeed</t>
+          <t>cloudcover</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1433368196878005</v>
+        <v>0.0437522302897952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>visibility</t>
+          <t>sealevelpressure</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2047709026008243</v>
+        <v>0.04101965729045996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>scaled_carrier_score</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.09285242697236638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0225366683747353</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>windspeed</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.05214338129067631</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>visibility</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1482721124605848</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>precip</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.164382961569653</v>
+      <c r="B18" t="n">
+        <v>0.0878755843607712</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1626317314657635</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dew</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.09106110836999026</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>humidity</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04818432830565974</v>
       </c>
     </row>
   </sheetData>
